--- a/RecodingDataSets/RecodingBrainTumorData/codedimagedata.xlsx
+++ b/RecodingDataSets/RecodingBrainTumorData/codedimagedata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmgco\Documents\GitHub\SML\SMLToolBox\RecodingDataSets\RecodingBrainTumorData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmgco\Documents\GitHub\ACN5314\RecodingDataSets\RecodingBrainTumorData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8476E6-F4F8-4D72-B8FA-C7B34F5FDB7B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E365CA0-F0FB-4FBA-AE1C-9A3D0AE29E4D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9615" xr2:uid="{407DAAF4-DA2A-4FE5-B39D-E59DC8003F97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9615" xr2:uid="{75F5A92F-DF2E-4C44-B498-453CE188ECE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBDBD74-3183-4D35-9677-376486230E8E}">
-  <dimension ref="A1:U9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F07D0F-F4AC-4277-B44B-FA78FF51A135}">
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U9"/>
+      <selection sqref="A1:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,61 +517,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.16221164903566693</v>
+        <v>0.17176434664642501</v>
       </c>
       <c r="C2">
-        <v>0.18459660461598618</v>
+        <v>0.14466429938535791</v>
       </c>
       <c r="D2">
-        <v>9.4217878390494142E-2</v>
+        <v>0.13748822892830057</v>
       </c>
       <c r="E2">
-        <v>8.7554850705000686E-2</v>
+        <v>0.11254161005276279</v>
       </c>
       <c r="F2">
-        <v>8.7255293556487701E-2</v>
+        <v>9.814579663508663E-2</v>
       </c>
       <c r="G2">
-        <v>8.9132690412895052E-2</v>
+        <v>7.2363088922366828E-2</v>
       </c>
       <c r="H2">
-        <v>0.10122897171242191</v>
+        <v>4.3323773512261292E-2</v>
       </c>
       <c r="I2">
-        <v>6.3159563084069434E-2</v>
+        <v>4.9743160866572267E-2</v>
       </c>
       <c r="J2">
-        <v>6.8085005305502724E-2</v>
+        <v>5.8916970707801226E-2</v>
       </c>
       <c r="K2">
-        <v>5.7234107857217928E-2</v>
+        <v>4.7651069785929846E-2</v>
       </c>
       <c r="L2">
-        <v>7.5088925627811234E-2</v>
+        <v>2.1651370940813805E-2</v>
       </c>
       <c r="M2">
-        <v>5.8367770150522205E-2</v>
+        <v>1.5745114904814502E-2</v>
       </c>
       <c r="N2">
-        <v>4.8344669686453949E-2</v>
+        <v>3.8975154123860302E-2</v>
       </c>
       <c r="O2">
-        <v>3.4872691985048221E-2</v>
+        <v>3.3116203228826024E-2</v>
       </c>
       <c r="P2">
-        <v>3.3577194327711883E-2</v>
+        <v>2.1775086360937137E-2</v>
       </c>
       <c r="Q2">
-        <v>4.6477007034364977E-2</v>
+        <v>1.6481112608846233E-2</v>
       </c>
       <c r="R2">
-        <v>4.0166674291475427E-2</v>
+        <v>3.1616888558866178E-2</v>
       </c>
       <c r="S2">
-        <v>4.7628757600829033E-2</v>
+        <v>2.4436117890858963E-2</v>
       </c>
       <c r="T2">
-        <v>3.523527755871983E-2</v>
+        <v>2.3305374132109761E-2</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -582,61 +582,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.15637766496298669</v>
+        <v>0.23676974856586755</v>
       </c>
       <c r="C3">
-        <v>0.18536753817031712</v>
+        <v>0.21470400880047322</v>
       </c>
       <c r="D3">
-        <v>0.1006423730868175</v>
+        <v>0.14609427681339762</v>
       </c>
       <c r="E3">
-        <v>8.9474371718238591E-2</v>
+        <v>0.14061407605734949</v>
       </c>
       <c r="F3">
-        <v>7.6798649203443412E-2</v>
+        <v>0.10167581903412362</v>
       </c>
       <c r="G3">
-        <v>7.1961639194222576E-2</v>
+        <v>0.11809730205607404</v>
       </c>
       <c r="H3">
-        <v>0.10318573149622597</v>
+        <v>9.5438680289595387E-2</v>
       </c>
       <c r="I3">
-        <v>6.6035731317071036E-2</v>
+        <v>7.450082881323962E-2</v>
       </c>
       <c r="J3">
-        <v>7.1196877882160323E-2</v>
+        <v>6.5478250559357729E-2</v>
       </c>
       <c r="K3">
-        <v>6.9245332758882533E-2</v>
+        <v>6.9622719002003522E-2</v>
       </c>
       <c r="L3">
-        <v>7.4741357203631939E-2</v>
+        <v>7.3487515587687888E-2</v>
       </c>
       <c r="M3">
-        <v>5.7046312518362216E-2</v>
+        <v>6.7579350977262767E-2</v>
       </c>
       <c r="N3">
-        <v>4.4105441388385819E-2</v>
+        <v>4.3720813653807887E-2</v>
       </c>
       <c r="O3">
-        <v>2.9861226123323047E-2</v>
+        <v>4.9658703332399766E-2</v>
       </c>
       <c r="P3">
-        <v>3.8866115687049917E-2</v>
+        <v>5.048208343064569E-2</v>
       </c>
       <c r="Q3">
-        <v>4.417316229239962E-2</v>
+        <v>4.6075374435212028E-2</v>
       </c>
       <c r="R3">
-        <v>4.2719370897222136E-2</v>
+        <v>4.4012279899273414E-2</v>
       </c>
       <c r="S3">
-        <v>4.2586699352619113E-2</v>
+        <v>2.9858118415012402E-2</v>
       </c>
       <c r="T3">
-        <v>3.6535155334994185E-2</v>
+        <v>3.0660135762942624E-2</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -647,61 +647,61 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4.5122957714186479E-2</v>
+        <v>0.22334434184809215</v>
       </c>
       <c r="C4">
-        <v>3.398319374315608E-2</v>
+        <v>0.19995605461424487</v>
       </c>
       <c r="D4">
-        <v>-3.7055981361607308E-2</v>
+        <v>0.14582753127687786</v>
       </c>
       <c r="E4">
-        <v>2.4194915554088127E-2</v>
+        <v>0.13083850019779761</v>
       </c>
       <c r="F4">
-        <v>6.2008934758983648E-2</v>
+        <v>0.10962113442178545</v>
       </c>
       <c r="G4">
-        <v>2.901130849104994E-2</v>
+        <v>0.11691294197558776</v>
       </c>
       <c r="H4">
-        <v>2.6674392327499248E-2</v>
+        <v>0.11071412279004669</v>
       </c>
       <c r="I4">
-        <v>4.4847479641413411E-2</v>
+        <v>7.7320125028083053E-2</v>
       </c>
       <c r="J4">
-        <v>4.6739349897925928E-3</v>
+        <v>7.5235815518133853E-2</v>
       </c>
       <c r="K4">
-        <v>4.8184851102983643E-2</v>
+        <v>6.3589582110217965E-2</v>
       </c>
       <c r="L4">
-        <v>1.2482159389729101E-2</v>
+        <v>6.7668154638748673E-2</v>
       </c>
       <c r="M4">
-        <v>1.5722113651708648E-2</v>
+        <v>6.8392288635380244E-2</v>
       </c>
       <c r="N4">
-        <v>7.0457632534793677E-3</v>
+        <v>5.5203428305235697E-2</v>
       </c>
       <c r="O4">
-        <v>2.9716186464046061E-2</v>
+        <v>5.3551599578789001E-2</v>
       </c>
       <c r="P4">
-        <v>9.8693498835624709E-3</v>
+        <v>4.8851862743418351E-2</v>
       </c>
       <c r="Q4">
-        <v>2.3596876651786308E-2</v>
+        <v>3.9861184963056545E-2</v>
       </c>
       <c r="R4">
-        <v>2.8328815348189488E-2</v>
+        <v>4.3680117282558856E-2</v>
       </c>
       <c r="S4">
-        <v>1.0955367884195705E-2</v>
+        <v>4.4205153733021411E-2</v>
       </c>
       <c r="T4">
-        <v>2.1795391755793287E-3</v>
+        <v>4.1704324013129832E-2</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -709,64 +709,64 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0.10343739215042679</v>
+        <v>0.21698044755451243</v>
       </c>
       <c r="C5">
-        <v>6.3931720877955636E-2</v>
+        <v>0.19938113672787028</v>
       </c>
       <c r="D5">
-        <v>-2.3217343449139449E-2</v>
+        <v>0.14439211086616113</v>
       </c>
       <c r="E5">
-        <v>1.3817662694582806E-2</v>
+        <v>0.12295557926920155</v>
       </c>
       <c r="F5">
-        <v>1.1366163801597766E-2</v>
+        <v>9.9087593198901494E-2</v>
       </c>
       <c r="G5">
-        <v>1.3544268238225368E-2</v>
+        <v>9.3725802937842634E-2</v>
       </c>
       <c r="H5">
-        <v>4.7548797658368311E-5</v>
+        <v>0.10639901739636078</v>
       </c>
       <c r="I5">
-        <v>-1.375902689783139E-2</v>
+        <v>7.5247764196170353E-2</v>
       </c>
       <c r="J5">
-        <v>-6.5370883834955473E-4</v>
+        <v>7.3863481821207222E-2</v>
       </c>
       <c r="K5">
-        <v>1.6225423985155869E-2</v>
+        <v>4.9906378707951358E-2</v>
       </c>
       <c r="L5">
-        <v>7.6465196556169072E-3</v>
+        <v>6.150250015606392E-2</v>
       </c>
       <c r="M5">
-        <v>1.2770875010784229E-2</v>
+        <v>6.2596675310434349E-2</v>
       </c>
       <c r="N5">
-        <v>1.2597192643718341E-2</v>
+        <v>4.668514578940948E-2</v>
       </c>
       <c r="O5">
-        <v>1.6303450851257863E-2</v>
+        <v>4.5213239966957509E-2</v>
       </c>
       <c r="P5">
-        <v>9.7353063813400906E-3</v>
+        <v>3.8688174984362743E-2</v>
       </c>
       <c r="Q5">
-        <v>1.5096842180362471E-3</v>
+        <v>4.5785663756719629E-2</v>
       </c>
       <c r="R5">
-        <v>1.356736194427084E-2</v>
+        <v>3.9329505788305893E-2</v>
       </c>
       <c r="S5">
-        <v>7.3088093029114584E-3</v>
+        <v>4.4807174499972624E-2</v>
       </c>
       <c r="T5">
-        <v>8.5949334007345037E-3</v>
+        <v>3.6652803625012512E-2</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -774,261 +774,66 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>8.6769939671526145E-2</v>
+        <v>6.1531146646561667E-2</v>
       </c>
       <c r="C6">
-        <v>7.50754622258724E-2</v>
+        <v>1.7703586860419604E-2</v>
       </c>
       <c r="D6">
-        <v>-1.6406175228006966E-2</v>
+        <v>-4.4393256080182161E-4</v>
       </c>
       <c r="E6">
-        <v>1.0434207383969373E-2</v>
+        <v>7.1829664990191279E-3</v>
       </c>
       <c r="F6">
-        <v>2.2062349756275603E-2</v>
+        <v>4.3978375028521269E-2</v>
       </c>
       <c r="G6">
-        <v>1.1550887783942249E-2</v>
+        <v>2.2384472571215435E-2</v>
       </c>
       <c r="H6">
-        <v>4.480103743947774E-5</v>
+        <v>2.7433031251045171E-2</v>
       </c>
       <c r="I6">
-        <v>-1.1852942746724408E-2</v>
+        <v>5.9090434476235729E-2</v>
       </c>
       <c r="J6">
-        <v>2.0750716483523283E-2</v>
+        <v>3.0221012200765882E-2</v>
       </c>
       <c r="K6">
-        <v>2.9750082232405422E-2</v>
+        <v>4.3524957119540401E-2</v>
       </c>
       <c r="L6">
-        <v>9.8780974003696061E-3</v>
+        <v>2.8093950935897331E-2</v>
       </c>
       <c r="M6">
-        <v>4.2350883634015646E-3</v>
+        <v>1.1481123701132512E-2</v>
       </c>
       <c r="N6">
-        <v>2.0945042867891204E-2</v>
+        <v>2.3168642291350863E-2</v>
       </c>
       <c r="O6">
-        <v>1.9759205273230798E-2</v>
+        <v>2.0730152084995349E-2</v>
       </c>
       <c r="P6">
-        <v>1.9105671693014234E-2</v>
+        <v>1.811518225740371E-2</v>
       </c>
       <c r="Q6">
-        <v>3.2832514630001339E-3</v>
+        <v>2.3339572877684726E-2</v>
       </c>
       <c r="R6">
-        <v>7.9476848946287461E-3</v>
+        <v>2.3651249259485324E-3</v>
       </c>
       <c r="S6">
-        <v>2.1614248265162685E-3</v>
+        <v>5.13083542450243E-3</v>
       </c>
       <c r="T6">
-        <v>6.4232470415080036E-3</v>
+        <v>7.3378955463310148E-3</v>
       </c>
       <c r="U6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0.19272048471791642</v>
-      </c>
-      <c r="C7">
-        <v>0.1370518809558087</v>
-      </c>
-      <c r="D7">
-        <v>0.13352887209447753</v>
-      </c>
-      <c r="E7">
-        <v>0.11114892786649284</v>
-      </c>
-      <c r="F7">
-        <v>6.9649210042150883E-2</v>
-      </c>
-      <c r="G7">
-        <v>6.4942705878509782E-2</v>
-      </c>
-      <c r="H7">
-        <v>4.3372552851216675E-2</v>
-      </c>
-      <c r="I7">
-        <v>4.8869714743718908E-2</v>
-      </c>
-      <c r="J7">
-        <v>4.1293604562190382E-2</v>
-      </c>
-      <c r="K7">
-        <v>2.8183386915472043E-2</v>
-      </c>
-      <c r="L7">
-        <v>2.6562778884946781E-2</v>
-      </c>
-      <c r="M7">
-        <v>2.2797406390095597E-2</v>
-      </c>
-      <c r="N7">
-        <v>3.3774883671728755E-2</v>
-      </c>
-      <c r="O7">
-        <v>4.1910784218184491E-2</v>
-      </c>
-      <c r="P7">
-        <v>3.1846660506608518E-2</v>
-      </c>
-      <c r="Q7">
-        <v>1.4211870545609939E-2</v>
-      </c>
-      <c r="R7">
-        <v>1.1173951054686028E-2</v>
-      </c>
-      <c r="S7">
-        <v>1.7386122511817041E-2</v>
-      </c>
-      <c r="T7">
-        <v>9.0902411791725559E-3</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0.18316265093716297</v>
-      </c>
-      <c r="C8">
-        <v>0.14141359755542338</v>
-      </c>
-      <c r="D8">
-        <v>0.14523904634773765</v>
-      </c>
-      <c r="E8">
-        <v>0.12141231540381661</v>
-      </c>
-      <c r="F8">
-        <v>8.4819184830228336E-2</v>
-      </c>
-      <c r="G8">
-        <v>8.1883489267279841E-2</v>
-      </c>
-      <c r="H8">
-        <v>5.8374134321274002E-2</v>
-      </c>
-      <c r="I8">
-        <v>4.6797195395599574E-2</v>
-      </c>
-      <c r="J8">
-        <v>4.6322971631785968E-2</v>
-      </c>
-      <c r="K8">
-        <v>3.7530911366264658E-2</v>
-      </c>
-      <c r="L8">
-        <v>2.4890896774939424E-2</v>
-      </c>
-      <c r="M8">
-        <v>3.6646528962758537E-2</v>
-      </c>
-      <c r="N8">
-        <v>3.9228007493760417E-2</v>
-      </c>
-      <c r="O8">
-        <v>4.0168357325523485E-2</v>
-      </c>
-      <c r="P8">
-        <v>3.2517603879531252E-2</v>
-      </c>
-      <c r="Q8">
-        <v>2.6263229093992157E-2</v>
-      </c>
-      <c r="R8">
-        <v>2.8566647724611611E-2</v>
-      </c>
-      <c r="S8">
-        <v>1.7917903804859293E-2</v>
-      </c>
-      <c r="T8">
-        <v>2.1973464663169802E-2</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>0.17099225602049911</v>
-      </c>
-      <c r="C9">
-        <v>0.12764571057967319</v>
-      </c>
-      <c r="D9">
-        <v>0.12455294559260523</v>
-      </c>
-      <c r="E9">
-        <v>0.10640950861662643</v>
-      </c>
-      <c r="F9">
-        <v>7.8027598736226264E-2</v>
-      </c>
-      <c r="G9">
-        <v>7.1200004306806342E-2</v>
-      </c>
-      <c r="H9">
-        <v>5.2443028184567114E-2</v>
-      </c>
-      <c r="I9">
-        <v>4.6212678392783577E-2</v>
-      </c>
-      <c r="J9">
-        <v>3.7008610706376052E-2</v>
-      </c>
-      <c r="K9">
-        <v>2.7256513933139291E-2</v>
-      </c>
-      <c r="L9">
-        <v>1.9346438520089677E-2</v>
-      </c>
-      <c r="M9">
-        <v>2.5400722152085799E-2</v>
-      </c>
-      <c r="N9">
-        <v>3.0148274761486581E-2</v>
-      </c>
-      <c r="O9">
-        <v>3.0139909413660428E-2</v>
-      </c>
-      <c r="P9">
-        <v>2.8880220883605985E-2</v>
-      </c>
-      <c r="Q9">
-        <v>1.5587702204344722E-2</v>
-      </c>
-      <c r="R9">
-        <v>1.1155240136166681E-2</v>
-      </c>
-      <c r="S9">
-        <v>1.0969375273050357E-2</v>
-      </c>
-      <c r="T9">
-        <v>3.1602202077071151E-2</v>
-      </c>
-      <c r="U9">
         <v>1</v>
       </c>
     </row>
